--- a/dataset/alergenicos.xlsx
+++ b/dataset/alergenicos.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/211b33f20a5e87a6/Área de Trabalho/Git Hub/Alergenicos/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/211b33f20a5e87a6/Área de Trabalho/Python/Streamlit/AlergenicosAPP/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{B051161B-5B79-477D-8D31-F451A0E96978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A882A41-ADCE-4906-8D27-7599F4C8A3B9}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{B051161B-5B79-477D-8D31-F451A0E96978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4441CCBB-B443-4968-A9A3-D73A8347E138}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A57B57CA-8B13-4CED-BF6B-21D8CC53CA12}"/>
   </bookViews>
   <sheets>
     <sheet name="alergenico" sheetId="1" r:id="rId1"/>
+    <sheet name="temp" sheetId="4" r:id="rId2"/>
+    <sheet name="imagem" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">alergenico!$A$1:$G$138</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="155">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -438,6 +440,66 @@
   </si>
   <si>
     <t>NESQUIK Premix Nova Formula 2023</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Descrição Matéria Prima</t>
+  </si>
+  <si>
+    <t>Fornecedor</t>
+  </si>
+  <si>
+    <t>Temperatura informada</t>
+  </si>
+  <si>
+    <t>Corante Vegebrite Cenoura Laranja PWS</t>
+  </si>
+  <si>
+    <t>Naturex</t>
+  </si>
+  <si>
+    <t>Inferior a 25°C</t>
+  </si>
+  <si>
+    <t>Suco Cranberry em pó</t>
+  </si>
+  <si>
+    <t>4 a 18°C</t>
+  </si>
+  <si>
+    <t>Vitamina Premix BEV 6328 Optistart 25kg</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>Inferior a 15°C</t>
+  </si>
+  <si>
+    <t>PremixVitaminico ACTIV-GO Ppb</t>
+  </si>
+  <si>
+    <t>Vitamina Premix OPTISTART Ppb</t>
+  </si>
+  <si>
+    <t>Vitamin Mineral Premix NUTR 25093</t>
+  </si>
+  <si>
+    <t>Premix Vitamina Silhueta MOLICO Po 25kg</t>
+  </si>
+  <si>
+    <t>Premix Nutr 5130 Revisao 2018</t>
+  </si>
+  <si>
+    <t>Hibisco em Po Soluvel</t>
+  </si>
+  <si>
+    <t>10 a 18°C</t>
+  </si>
+  <si>
+    <t>Corante Vegebrite Safflower PWS</t>
   </si>
   <si>
     <t>OBSERVAÇÃO</t>
@@ -450,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +528,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -523,12 +592,64 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,60 +708,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,6 +808,145 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>349885</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053783E2-0F56-47C8-93E1-5AF2C5B0A278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="704850"/>
+          <a:ext cx="6607810" cy="1216025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369095</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3287901-8A3A-4CCD-B0CC-B90F34907109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect r="85174"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3643314" y="2476500"/>
+          <a:ext cx="976312" cy="1216025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339327</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160735</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5066797-46F1-4D83-89D2-5C0B03198D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="16281" r="67980"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5804296" y="2476500"/>
+          <a:ext cx="1035845" cy="1216025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,2501 +1270,2501 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="105.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="105.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>133</v>
+      <c r="H1" s="21" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="15">
         <v>43309107</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="15">
         <v>20016280</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="15">
         <v>20340747</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="15">
         <v>43529601</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="15">
         <v>20340821</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="15">
         <v>44008730</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="15">
         <v>43397313</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="15">
         <v>43484973</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="15">
         <v>43662191</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="15">
         <v>43529606</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="15">
         <v>44105785</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="15">
         <v>43657306</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="15">
         <v>43485266</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="16">
         <v>43897898</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="15">
         <v>44042594</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="15">
         <v>43076293</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="15">
         <v>20341327</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="15">
         <v>44143063</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="15">
         <v>43192438</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="15">
         <v>43639281</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="15">
         <v>43291319</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="C22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="15">
         <v>43900667</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="C23" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="15">
         <v>20345876</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="C24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="15">
         <v>43891976</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="15">
         <v>43156279</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
+      <c r="C26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="15">
         <v>20345647</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="15">
         <v>43842493</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="15">
         <v>20345704</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="15">
         <v>43677092</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="15">
         <v>43735449</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="15">
         <v>43580152</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="15">
         <v>20345711</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="15">
         <v>43116020</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="15">
         <v>43893127</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="15">
         <v>44139681</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="15">
         <v>44079962</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="17">
         <v>44321909</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="17">
         <v>43682870</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40" s="15">
         <v>20345881</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="A41" s="15">
         <v>20345883</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="A42" s="15">
         <v>20345885</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+      <c r="A43" s="15">
         <v>43907808</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="6"/>
+      <c r="C43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="A44" s="15">
         <v>44002615</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="A45" s="15">
         <v>20346007</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+      <c r="A46" s="15">
         <v>43733735</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="17">
         <v>43424015</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="A48" s="15">
         <v>44301495</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="A49" s="15">
         <v>44292594</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+      <c r="A50" s="15">
         <v>44353442</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="A51" s="15">
         <v>44105808</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="6"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="A52" s="18">
         <v>44244983</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="6"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+      <c r="A53" s="15">
         <v>43784632</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
+      <c r="C53" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="A54" s="15">
         <v>43194086</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="6"/>
+      <c r="C54" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+      <c r="A55" s="15">
         <v>44285817</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="6"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
+      <c r="A56" s="15">
         <v>43864661</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="6"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
+      <c r="A57" s="15">
         <v>44031173</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="6"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
+      <c r="A58" s="15">
         <v>43969076</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="6"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
+      <c r="A59" s="15">
         <v>44141347</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="6"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
+      <c r="A60" s="15">
         <v>44084720</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="6"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
+      <c r="A61" s="15">
         <v>44253475</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61" s="6"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62" s="17">
         <v>44295659</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="6"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63" s="17">
         <v>44295690</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="6"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64" s="17">
         <v>44295691</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="6"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
+      <c r="A65" s="15">
         <v>44295680</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
+      <c r="A66" s="15">
         <v>44285351</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H66" s="6"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
+      <c r="A67" s="15">
         <v>43836805</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="6"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
+      <c r="A68" s="15">
         <v>43907457</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9">
+      <c r="A69" s="15">
         <v>44115921</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9">
+      <c r="A70" s="15">
         <v>43192228</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="6"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
+      <c r="A71" s="15">
         <v>43635012</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="6"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
+      <c r="A72" s="15">
         <v>44138215</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="13"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
+      <c r="A73" s="15">
         <v>20348186</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9">
+      <c r="A74" s="15">
         <v>43825267</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="6"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9">
+      <c r="A75" s="15">
         <v>43911618</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="6"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9">
+      <c r="A76" s="15">
         <v>43650313</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="6"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
+      <c r="A77" s="15">
         <v>44208158</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="6"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78" s="17">
         <v>44251284</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="6"/>
+      <c r="C78" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="A79" s="17">
         <v>44251244</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="6"/>
+      <c r="C79" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
+      <c r="A80" s="15">
         <v>43776244</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="6"/>
+      <c r="C80" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
+      <c r="A81" s="15">
         <v>43864835</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="6" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9">
+      <c r="A82" s="15">
         <v>43628581</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="6" t="s">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
+      <c r="A83" s="15">
         <v>44113293</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="6" t="s">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9">
+      <c r="A84" s="15">
         <v>43217920</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="6"/>
+      <c r="C84" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" s="13"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+      <c r="A85" s="15">
         <v>44218844</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="6"/>
+      <c r="C85" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9">
+      <c r="A86" s="15">
         <v>43950841</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="6"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
+      <c r="A87" s="15">
         <v>43631855</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="6"/>
+      <c r="C87" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9">
+      <c r="A88" s="15">
         <v>44296782</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="6"/>
+      <c r="C88" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
+      <c r="A89" s="15">
         <v>44311011</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="6"/>
+      <c r="C89" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9">
+      <c r="A90" s="15">
         <v>43855211</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="6"/>
+      <c r="C90" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+      <c r="A91" s="15">
         <v>43989022</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="6"/>
+      <c r="C91" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G91" s="13"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
+      <c r="A92" s="15">
         <v>43632225</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="6"/>
+      <c r="C92" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G92" s="13"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
+      <c r="A93" s="15">
         <v>43776246</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="6"/>
+      <c r="C93" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="13"/>
+      <c r="F93" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
+      <c r="A94" s="15">
         <v>44027773</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="6"/>
+      <c r="C94" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+      <c r="A95" s="15">
         <v>43821292</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="6"/>
+      <c r="C95" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9">
+      <c r="A96" s="15">
         <v>43919320</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="6"/>
+      <c r="C96" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="9">
+      <c r="A97" s="15">
         <v>44107448</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="6"/>
+      <c r="C97" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="9">
+      <c r="A98" s="15">
         <v>44166926</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="6"/>
+      <c r="C98" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9">
+      <c r="A99" s="15">
         <v>44120098</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="6"/>
+      <c r="C99" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="9">
+      <c r="A100" s="15">
         <v>43929518</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="6"/>
+      <c r="C100" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9">
+      <c r="A101" s="15">
         <v>43843797</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="6"/>
+      <c r="C101" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="9">
+      <c r="A102" s="15">
         <v>44004769</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="6"/>
+      <c r="C102" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9">
+      <c r="A103" s="15">
         <v>44004776</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="6"/>
+      <c r="C103" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="9">
+      <c r="A104" s="15">
         <v>44131961</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="6"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="9">
+      <c r="A105" s="15">
         <v>44064143</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="6"/>
+      <c r="C105" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="9">
+      <c r="A106" s="15">
         <v>44064119</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="6"/>
+      <c r="C106" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="9">
+      <c r="A107" s="15">
         <v>43730379</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="6"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9">
+      <c r="A108" s="15">
         <v>44148356</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="6"/>
+      <c r="C108" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9">
+      <c r="A109" s="15">
         <v>44107447</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="6"/>
+      <c r="C109" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="9">
+      <c r="A110" s="15">
         <v>44166189</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="6"/>
+      <c r="C110" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="9">
+      <c r="A111" s="15">
         <v>43525388</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="6"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9">
+      <c r="A112" s="15">
         <v>43625259</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="6"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G112" s="11"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="13">
+      <c r="A113" s="19">
         <v>44229195</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="6"/>
+      <c r="C113" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="9">
+      <c r="A114" s="15">
         <v>44235178</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="6"/>
+      <c r="C114" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9">
+      <c r="A115" s="15">
         <v>44253417</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="6"/>
+      <c r="C115" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G115" s="11"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="9">
+      <c r="A116" s="15">
         <v>44291975</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="6"/>
+      <c r="C116" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G116" s="11"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9">
+      <c r="A117" s="15">
         <v>44287793</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="6"/>
+      <c r="C117" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G117" s="11"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9">
+      <c r="A118" s="15">
         <v>43514927</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="6"/>
+      <c r="C118" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G118" s="11"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="9">
+      <c r="A119" s="15">
         <v>44187680</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="6"/>
+      <c r="C119" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G119" s="11"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="9">
+      <c r="A120" s="15">
         <v>43690092</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="6"/>
+      <c r="C120" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G120" s="11"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9">
+      <c r="A121" s="15">
         <v>43793541</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="6"/>
+      <c r="C121" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G121" s="11"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="9">
+      <c r="A122" s="15">
         <v>44301508</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="6"/>
+      <c r="C122" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9">
+      <c r="A123" s="15">
         <v>44328377</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="6"/>
+      <c r="C123" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G123" s="11"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9">
+      <c r="A124" s="15">
         <v>44328364</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="6"/>
+      <c r="C124" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G124" s="11"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="9">
+      <c r="A125" s="15">
         <v>44346656</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="6"/>
+      <c r="C125" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9">
+      <c r="A126" s="15">
         <v>44064144</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G126" s="5"/>
-      <c r="H126" s="6"/>
+      <c r="C126" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" s="11"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="9">
+      <c r="A127" s="15">
         <v>44357551</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G127" s="5"/>
-      <c r="H127" s="6"/>
+      <c r="C127" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="9">
+      <c r="A128" s="15">
         <v>44357475</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G128" s="5"/>
-      <c r="H128" s="6"/>
+      <c r="C128" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="9">
+      <c r="A129" s="15">
         <v>44346656</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G129" s="5"/>
-      <c r="H129" s="6"/>
+      <c r="C129" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G129" s="11"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="9">
+      <c r="A130" s="15">
         <v>43989416</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="6" t="s">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="9">
+      <c r="A131" s="15">
         <v>43989435</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="6" t="s">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9">
+      <c r="A132" s="15">
         <v>44157847</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="6" t="s">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="9">
+      <c r="A133" s="15">
         <v>44157850</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="6" t="s">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="9">
+      <c r="A134" s="15">
         <v>44127189</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="6" t="s">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="9">
+      <c r="A135" s="15">
         <v>44152663</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="6" t="s">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="12">
+      <c r="A136" s="18">
         <v>44175071</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="6" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="9">
+      <c r="A137" s="15">
         <v>43908436</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="6" t="s">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11">
+      <c r="A138" s="17">
         <v>44283497</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="6" t="s">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="8"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
+      <c r="A148" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G138" xr:uid="{2B8A4E89-4767-4586-8AD1-D5A1B3553300}"/>
@@ -3498,6 +3776,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED684F4-CA0F-41D4-922E-3E0B32FA88F7}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.7109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44115882</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43993919</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43537405</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>43621852</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>43623504</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>43648277</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>43806368</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>43863087</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>43650313</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>43996645</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>44115860</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5698EB68-BBC3-4FD6-B1AC-87452101A0BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1ada0a2f-b917-4d51-b0d0-d418a10c8b23}" enabled="1" method="Standard" siteId="{12a3af23-a769-4654-847f-958f3d479f4a}" contentBits="0" removed="0"/>
